--- a/patient_data/patient_66.xlsx
+++ b/patient_data/patient_66.xlsx
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1312,28 +1312,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1389,37 +1389,37 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1851,16 +1851,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1925,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2002,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2079,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2156,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
